--- a/spring_be_realistic.xlsx
+++ b/spring_be_realistic.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
   <si>
     <t>Univ</t>
   </si>
@@ -745,6 +745,26 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>추천서를 하드카피로 보내야된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterloo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toronto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western ontario</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Northeastern University Nov 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -753,7 +773,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -886,15 +906,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -931,7 +942,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -995,15 +1006,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1312,7 +1320,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1361,6 +1369,9 @@
       <c r="B2" s="18" t="s">
         <v>89</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -1369,19 +1380,13 @@
       <c r="B3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
+      <c r="A4" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="B4" s="17"/>
     </row>
-    <row r="5" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="17"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
     </row>
     <row r="10" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
@@ -1389,21 +1394,30 @@
     </row>
     <row r="11" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
-      <c r="B11" s="23"/>
-    </row>
-    <row r="12" spans="1:8" s="12" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-    </row>
-    <row r="13" spans="1:8" s="12" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="19"/>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
+      <c r="B11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="17"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
@@ -1413,7 +1427,7 @@
       <c r="A18" s="11"/>
     </row>
     <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
+      <c r="A19" s="23"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>

--- a/spring_be_realistic.xlsx
+++ b/spring_be_realistic.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
   <si>
     <t>Univ</t>
   </si>
@@ -326,27 +326,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Purdue University,West Lafayette</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>희망은 있어보임.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Associate Business Analyst at Baidu, Inc. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -367,55 +346,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>interested prog. 선택시 하나에 other로 표기된게 있어. 
-관심가는  faculty를 리스팅 안했으.
-GPA 가 얼마지? 다시 계산?
-Statement of interest not uploaded</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please indicate faculty with whom you have either spoken or wish to study. 라는게 있다. !!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Duke University</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>杜克大</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="새굴림"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>学</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Pratt)  spring ms only</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Zheyu Jin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -429,10 +359,6 @@
   </si>
   <si>
     <t>(+82)02-2194-5369</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data Mining:David Gleich:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -474,26 +400,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">RTP is  next door.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">성적표 스캔뜬거,Statement of Purpos 올려야대.
-http://admissionsource.wordpress.com/2007/07/26/successful-essays/ 참고. </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Yeoksamdong Gangnam-gu, 831-47 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -530,36 +436,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2JW77N8Q849
-Nimama2011 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ronald Parr, Carlo Tomasi, Vincent Conit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Nexstreaming Corporation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jinzheyu
-Nimama2011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statement of purpose :
-http://www.cs.purdue.edu/academic_programs/graduate/admission/SoP.sxhtml
-grad-info@cs.purdue.edu
-cs homepage:
-http://www.cs.purdue.edu/academic_programs/graduate/admission/steps.sxhtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intro
-http://www.cs.duke.edu/education/graduate/prospective/resources
-신청:
-https://app.applyyourself.com/?id=DukeGrad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -750,10 +627,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>waterloo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Toronto</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -762,7 +635,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Northeastern University Nov 15</t>
+    <r>
+      <t>The University of Alabama阿拉巴</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>马</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>奖</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>金，august 1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Northeastern University 
+Nov 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterloo
+October 15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,7 +742,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -814,34 +783,10 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="굴림"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="굴림"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="새굴림"/>
-      <family val="1"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="6"/>
@@ -920,6 +865,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -953,62 +916,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1319,8 +1282,8 @@
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A74" sqref="A74:J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1359,34 +1322,39 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
+    </row>
+    <row r="6" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="10" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
@@ -1398,7 +1366,7 @@
     </row>
     <row r="12" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="8"/>
@@ -1407,12 +1375,12 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1440,45 +1408,13 @@
       <c r="B42" s="17"/>
       <c r="D42" s="9"/>
     </row>
-    <row r="74" spans="1:8" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>72</v>
-      </c>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="3"/>
+      <c r="B74" s="17"/>
+    </row>
+    <row r="75" spans="1:2" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4"/>
+      <c r="B75" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1538,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
@@ -1567,7 +1503,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
@@ -1648,7 +1584,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
@@ -1729,7 +1665,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>15</v>
@@ -1756,7 +1692,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>15</v>
@@ -1898,12 +1834,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1911,67 +1847,67 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
@@ -1981,82 +1917,82 @@
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="15" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="13" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/spring_be_realistic.xlsx
+++ b/spring_be_realistic.xlsx
@@ -1282,8 +1282,8 @@
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A74" sqref="A74:J75"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/spring_be_realistic.xlsx
+++ b/spring_be_realistic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="5280" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="5280" windowHeight="7950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
   <si>
     <t>Univ</t>
   </si>
@@ -363,18 +363,6 @@
   </si>
   <si>
     <t>areas/profs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kimcherwoo@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post code:135-080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Associate Business Analyst at Baidu, Inc. (Intern) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -400,10 +388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Yeoksamdong Gangnam-gu, 831-47 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>135-080</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -591,11 +575,6 @@
   </si>
   <si>
     <t>麦克马斯特大学 McMaster University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SAN JOSÉ STATE UNIVERSITY
-September 30, </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -627,11 +606,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Toronto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Western ontario</t>
+    <t>Northeastern University 
+Nov 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concordia 
+e돈있어. ; montreal. 
+Oct 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Victoria
+돈있어. 
+Sept 15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -725,13 +713,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Northeastern University 
-Nov 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waterloo
-October 15</t>
+    <t xml:space="preserve">SAN JOSÉ STATE UNIVERSITY
+September 30, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kimcherwoo@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeoksamdong Gangnam-gu, 831-47 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post code:135-080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135-080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMU </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jin1134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nimama2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seoul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Associate Business Analyst at Baidu, Inc. (Intern) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1281,9 +1300,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1327,61 +1346,61 @@
     </row>
     <row r="2" spans="1:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
+      <c r="A5" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="12" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="B10" s="19"/>
     </row>
-    <row r="11" spans="1:8" s="12" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:8" s="12" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="B11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>84</v>
-      </c>
+      <c r="A12" s="9"/>
       <c r="B12" s="17"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
@@ -1474,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
@@ -1503,7 +1522,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
@@ -1584,7 +1603,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
@@ -1665,7 +1684,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>15</v>
@@ -1692,7 +1711,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>15</v>
@@ -1819,10 +1838,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1832,52 +1851,58 @@
     <col min="6" max="6" width="67.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
@@ -1887,12 +1912,12 @@
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
@@ -1907,7 +1932,7 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
@@ -1922,7 +1947,7 @@
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
@@ -1932,12 +1957,12 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
@@ -1947,22 +1972,22 @@
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
@@ -1977,22 +2002,22 @@
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/spring_be_realistic.xlsx
+++ b/spring_be_realistic.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="5280" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="5280" windowHeight="7950" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="加拿大大学" sheetId="2" r:id="rId2"/>
     <sheet name="澳大利亚" sheetId="3" r:id="rId3"/>
     <sheet name="address" sheetId="4" r:id="rId4"/>
+    <sheet name="reuse-materials" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="99">
   <si>
     <t>Univ</t>
   </si>
@@ -751,6 +752,46 @@
   </si>
   <si>
     <t xml:space="preserve">Associate Business Analyst at Baidu, Inc. (Intern) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alberta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>santa Clara</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toronto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterloo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail sent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1840,7 +1881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -2031,4 +2072,87 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/spring_be_realistic.xlsx
+++ b/spring_be_realistic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="5280" windowHeight="7950" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="5280" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="100">
   <si>
     <t>Univ</t>
   </si>
@@ -792,6 +792,10 @@
   </si>
   <si>
     <t>yes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g/t REPORTED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1341,9 +1345,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1417,6 +1421,9 @@
       </c>
       <c r="D5" s="2" t="s">
         <v>86</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
@@ -2078,7 +2085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>

--- a/spring_be_realistic.xlsx
+++ b/spring_be_realistic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="5280" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="5280" windowHeight="7950" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="104">
   <si>
     <t>Univ</t>
   </si>
@@ -759,43 +759,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>OSU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterloo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail sent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g/t REPORTED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전부 OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail sent again</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOR 안돼.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전부 OK 메이러 알려줘.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toronto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Alberta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OSU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>santa Clara</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toronto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waterloo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mail sent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g/t REPORTED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1345,7 +1361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
@@ -1423,7 +1439,7 @@
         <v>86</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
@@ -2085,50 +2101,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="36.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>89</v>
       </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
         <v>97</v>
@@ -2136,29 +2153,35 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
         <v>94</v>
-      </c>
-      <c r="B6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
         <v>96</v>
       </c>
-      <c r="B8" t="s">
-        <v>97</v>
-      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C8">
+    <sortCondition ref="B1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/spring_be_realistic.xlsx
+++ b/spring_be_realistic.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="5280" windowHeight="7950" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="5280" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="102">
   <si>
     <t>Univ</t>
   </si>
@@ -579,10 +579,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.sjsu.edu/cs/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">IIT
 September 1, 2013
@@ -603,10 +599,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>추천서를 하드카피로 보내야된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Northeastern University 
 Nov 15</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -624,101 +616,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>The University of Alabama阿拉巴</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>马</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>大</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>学</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 有</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>奖</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>学</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>金，august 1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SAN JOSÉ STATE UNIVERSITY
-September 30, </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kimcherwoo@gmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -739,10 +636,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jin1134</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Nimama2013</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -812,6 +705,21 @@
   </si>
   <si>
     <t>Alberta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NID:623002740
+jin1134
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cas.tamu.edu/cas/login?service=https://applicant.tamu.edu/CAS3Login.aspx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재는 2단계..
+3단계 가기전에 뭘 더 해야 되나?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -822,7 +730,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -945,24 +853,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -985,7 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1057,10 +947,13 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1073,7 +966,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1361,9 +1254,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1406,56 +1299,53 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="A2" s="9"/>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" s="17"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>78</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
     </row>
     <row r="10" spans="1:8" s="12" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10" s="19"/>
     </row>
     <row r="11" spans="1:8" s="12" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="22"/>
     </row>
@@ -1502,7 +1392,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1935,18 +1825,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1956,12 +1846,12 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="181.5" x14ac:dyDescent="0.3">
@@ -2101,7 +1991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2113,69 +2003,69 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
         <v>92</v>
-      </c>
-      <c r="B5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/spring_be_realistic.xlsx
+++ b/spring_be_realistic.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="5280" windowHeight="7950"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
   <si>
     <t>Univ</t>
   </si>
@@ -385,10 +385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2nd Flr,Gwangseong Bldg,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>135-080</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -576,6 +572,237 @@
   </si>
   <si>
     <t>麦克马斯特大学 McMaster University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kimcherwoo@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeoksamdong Gangnam-gu, 831-47 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post code:135-080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135-080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMU </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nimama2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seoul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Associate Business Analyst at Baidu, Inc. (Intern) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterloo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail sent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g/t REPORTED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전부 OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail sent again</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOR 안돼.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전부 OK 메이러 알려줘.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toronto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alberta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NID:623002740
+jin1134
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cas.tamu.edu/cas/login?service=https://applicant.tamu.edu/CAS3Login.aspx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재는 2단계..
+3단계 가기전에 뭘 더 해야 되나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학비 너무 비쌈.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Victoria
+돈있어. 
+Sept 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concordia 
+e돈있어. ; montreal. 
+Oct 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Northeastern University 
+Nov 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기도 비쌈.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Texas Tech University(Whitacre) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>德州理工大</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>学 rolling. Competitive Aid.</t>
+    </r>
+  </si>
+  <si>
+    <t>학비싸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>The University of Kansas</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>堪</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>萨</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>斯大</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">学 oct 1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF444444"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://shibboleth-idp.collegenet.com/idp/Authn/UserPassword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -594,132 +821,24 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>先到先得 rolling</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Northeastern University 
-Nov 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Concordia 
-e돈있어. ; montreal. 
-Oct 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Victoria
-돈있어. 
-Sept 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kimcherwoo@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Yeoksamdong Gangnam-gu, 831-47 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post code:135-080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>135-080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMU </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nimama2013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seoul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Associate Business Analyst at Baidu, Inc. (Intern) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UFL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OSU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waterloo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mail sent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g/t REPORTED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전부 OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mail sent again</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UBC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOR 안돼.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전부 OK 메이러 알려줘.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UCSC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toronto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alberta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">NID:623002740
-jin1134
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cas.tamu.edu/cas/login?service=https://applicant.tamu.edu/CAS3Login.aspx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재는 2단계..
-3단계 가기전에 뭘 더 해야 되나?</t>
+      <t>先到先得 rolling,October 15</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3rd Flr,Gwangseong Bldg,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRE reg num:7861033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOEFL: JUL 15, 2012   reg num:0000000015597467</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://welcome.iit.edu/Prod/Pages/Login.aspx?ReturnUrl=/Prod/Pages/Application.aspx?id=e58506e6-0512-e311-9d08-00505690011b&amp;NeedsLogin=True</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +849,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,30 +882,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="6"/>
       <color theme="0" tint="-0.34998626667073579"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -816,14 +913,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -846,8 +935,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="새굴림"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -875,7 +1003,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -883,41 +1011,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -929,31 +1039,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -966,7 +1091,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1256,13 +1381,13 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="49.125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="14.75" style="18" customWidth="1"/>
+    <col min="2" max="2" width="49.125" style="10" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.75" style="2" customWidth="1"/>
@@ -1273,10 +1398,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1299,103 +1424,130 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="18"/>
+      <c r="A2" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="17"/>
+      <c r="A3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="17"/>
-    </row>
-    <row r="5" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="E4" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="96.75" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="7" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-    </row>
-    <row r="10" spans="1:8" s="12" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="19"/>
-    </row>
-    <row r="11" spans="1:8" s="12" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="B10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" s="7" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
+    </row>
+    <row r="20" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="22"/>
-    </row>
-    <row r="12" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="17"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="17"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-    </row>
-    <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="20"/>
+      <c r="B20" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="14"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="17"/>
-      <c r="D42" s="9"/>
+      <c r="B42" s="11"/>
+      <c r="D42" s="6"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="3"/>
-      <c r="B74" s="17"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="11"/>
     </row>
     <row r="75" spans="1:2" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="4"/>
-      <c r="B75" s="18"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B20" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1403,7 +1555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1446,8 +1598,8 @@
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>68</v>
+      <c r="C2" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
@@ -1475,8 +1627,8 @@
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>67</v>
+      <c r="C3" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
@@ -1501,7 +1653,7 @@
       <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1527,7 +1679,7 @@
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1553,11 +1705,11 @@
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
@@ -1580,7 +1732,7 @@
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1607,10 +1759,10 @@
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1631,14 +1783,14 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>15</v>
@@ -1661,11 +1813,11 @@
       <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>70</v>
+      <c r="C10" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>15</v>
@@ -1685,10 +1837,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>41194</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1712,7 +1864,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <v>41194</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1739,7 +1891,7 @@
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="4">
         <v>41194</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1792,10 +1944,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1811,8 +1963,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
-        <v>60</v>
+      <c r="B2" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1820,42 +1972,42 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
         <v>77</v>
-      </c>
-      <c r="C4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
-        <v>76</v>
+      <c r="B7" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1866,12 +2018,12 @@
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
@@ -1886,7 +2038,7 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
@@ -1895,13 +2047,13 @@
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
@@ -1910,23 +2062,23 @@
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="15" t="s">
-        <v>54</v>
+      <c r="B38" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
@@ -1935,17 +2087,17 @@
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="13" t="s">
-        <v>65</v>
+      <c r="B44" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1956,22 +2108,32 @@
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2003,69 +2165,69 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
         <v>87</v>
-      </c>
-      <c r="B5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/spring_be_realistic.xlsx
+++ b/spring_be_realistic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="5280" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="5280" windowHeight="7950" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="130">
   <si>
     <t>Univ</t>
   </si>
@@ -351,10 +351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sunghyun.yoo@nexstreaming.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iltaek.lim@nexstreaming.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -854,11 +850,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apply:https://www.uvic.ca/BAN2P/bzskprog.p_selectprogram
-docs:http://www.uvic.ca/graduatestudies/admissions/admissions/beforeapplying/documents/index.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">
 本帖最后由 Bill_Ma 于 2011-4-24 08:13 </t>
@@ -13362,12 +13353,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25237AK8445
-Nimama2013!</t>
+    <t>이학교의 program 에서 이해가 안되는 부분이 있다. 전공항목까지 선택해야 되나?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이학교의 program 에서 이해가 안되는 부분이 있다. 전공항목까지 선택해야 되나?</t>
+    <t>Regina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saskatchewan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply:https://www.uvic.ca/BAN2P/bzskprog.p_selectprogram
+docs:http://www.uvic.ca/graduatestudies/admissions/admissions/beforeapplying/documents/index.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -13376,15 +13375,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">maybe too difficult for me.. No. </t>
+    <t>Jong-Deuk KIM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Regina</t>
+    <t>Head of Application Group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Saskatchewan</t>
+    <t>jd.kim@nexstreaming.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+(82)02-2194-5360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Head of Platform Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eric.yoo@nexstreaming.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수한테 메일써 물어봐야돼. 학비는 거의 3.5만 달러 들거 같은데, 내 저축으로 가능하겠다.
+http://www.csc.uvic.ca/Program_Information/Graduate_Studies/msc_program.htm#ThesisCourses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25237AK8445
+Nimama2013!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13589,10 +13610,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -13637,6 +13654,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -13942,16 +13965,16 @@
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="17" customWidth="1"/>
-    <col min="2" max="2" width="49.125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="14.75" style="15" customWidth="1"/>
+    <col min="2" max="2" width="49.125" style="8" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="2"/>
     <col min="7" max="7" width="28.875" style="2" customWidth="1"/>
@@ -13960,10 +13983,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -13982,147 +14005,147 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>102</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>107</v>
+      <c r="A3" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="11"/>
+      <c r="A4" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="9"/>
       <c r="E4" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="96.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
-        <v>99</v>
+      <c r="A5" s="21" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="16"/>
     </row>
     <row r="7" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="7" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>114</v>
+      <c r="A10" s="18" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" ht="86.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>115</v>
+    <row r="11" spans="1:8" s="7" customFormat="1" ht="207" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>122</v>
+      <c r="D11" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="11"/>
+      <c r="A12" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="9"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>124</v>
+      <c r="A13" s="15" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
+      <c r="A18" s="16"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
+      <c r="A19" s="16"/>
     </row>
     <row r="20" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="E20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
+      <c r="A23" s="16"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="12"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="11"/>
+      <c r="B42" s="9"/>
       <c r="D42" s="6"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="23"/>
-      <c r="B74" s="11"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="9"/>
     </row>
     <row r="75" spans="1:2" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="23"/>
-      <c r="B75" s="12"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14141,7 +14164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -14153,7 +14176,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
@@ -14190,7 +14213,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
@@ -14218,8 +14241,8 @@
       <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>66</v>
+      <c r="C7" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>15</v>
@@ -14300,7 +14323,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>15</v>
@@ -14346,7 +14369,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -14381,7 +14404,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>15</v>
@@ -14408,7 +14431,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>15</v>
@@ -14537,219 +14560,249 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="50.75" customWidth="1"/>
-    <col min="4" max="4" width="33.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="67.125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="22"/>
+    <col min="2" max="2" width="50.75" style="22" customWidth="1"/>
+    <col min="3" max="3" width="9" style="22"/>
+    <col min="4" max="4" width="33.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="22"/>
+    <col min="6" max="6" width="67.125" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>104</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="23" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
+    <row r="11" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="25" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="22" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <v>100081</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>57</v>
+      <c r="D33" s="23" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>42</v>
+      <c r="D34" s="22" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="9" t="s">
-        <v>53</v>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="22" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>65</v>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="22" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>51</v>
+      <c r="B51" s="22" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>63</v>
+      <c r="B52" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="22">
+        <v>100081</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="23" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>105</v>
+      <c r="B58" s="22" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>106</v>
+      <c r="B59" s="22" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B32" r:id="rId1"/>
-    <hyperlink ref="B40" r:id="rId2"/>
-    <hyperlink ref="B47" r:id="rId3"/>
+    <hyperlink ref="B57" r:id="rId1"/>
+    <hyperlink ref="B17" r:id="rId2"/>
+    <hyperlink ref="D33" r:id="rId3"/>
     <hyperlink ref="B7" r:id="rId4"/>
-    <hyperlink ref="B44" r:id="rId5"/>
-    <hyperlink ref="D41" r:id="rId6"/>
+    <hyperlink ref="B21" r:id="rId5"/>
+    <hyperlink ref="D18" r:id="rId6"/>
+    <hyperlink ref="B25" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -14758,7 +14811,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14769,69 +14822,69 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/spring_be_realistic.xlsx
+++ b/spring_be_realistic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="5280" windowHeight="7950" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="5280" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -13365,11 +13365,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apply:https://www.uvic.ca/BAN2P/bzskprog.p_selectprogram
-docs:http://www.uvic.ca/graduatestudies/admissions/admissions/beforeapplying/documents/index.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PW:caonim
 ID:A00085617</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -13406,6 +13401,11 @@
   <si>
     <t>25237AK8445
 Nimama2013!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply:https://www.uvic.ca/BAN2P/bzskprog.p_selectprogram
+docs:http://www.uvic.ca/graduatestudies/admissions/admissions/beforeapplying/documents/index.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13964,9 +13964,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14055,7 +14055,7 @@
         <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>117</v>
@@ -14071,13 +14071,13 @@
         <v>112</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14560,7 +14560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -14637,7 +14637,7 @@
     <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -14655,7 +14655,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>109</v>
@@ -14684,22 +14684,22 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>61</v>

--- a/spring_be_realistic.xlsx
+++ b/spring_be_realistic.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="5280" windowHeight="7950"/>
@@ -12,13 +12,14 @@
     <sheet name="澳大利亚" sheetId="3" r:id="rId3"/>
     <sheet name="address" sheetId="4" r:id="rId4"/>
     <sheet name="reuse-materials" sheetId="5" r:id="rId5"/>
+    <sheet name="GRE TEOFL" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="176">
   <si>
     <t>Univ</t>
   </si>
@@ -575,14 +576,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Yeoksamdong Gangnam-gu, 831-47 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post code:135-080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>135-080</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -678,129 +671,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>학비 너무 비쌈.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여기도 비쌈.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Texas Tech University(Whitacre) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>德州理工大</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="새굴림"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>学 rolling. Competitive Aid.</t>
-    </r>
-  </si>
-  <si>
     <t>학비싸다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>The University of Kansas</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>堪</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="새굴림"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>萨</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>斯大</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="새굴림"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">学 oct 1. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF444444"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://shibboleth-idp.collegenet.com/idp/Authn/UserPassword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">IIT
-September 1, 2013
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>先到先得 rolling,October 15</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3rd Flr,Gwangseong Bldg,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -817,11 +695,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Northeastern University 
-Nov 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Carlos Lucas</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -835,18 +708,6 @@
   </si>
   <si>
     <t>+34637463803</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Victoria
-돈있어. 
-Sept 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Concordia 
-e돈있어. ; montreal. 
-Oct 15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -13357,14 +13218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Regina</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Saskatchewan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PW:caonim
 ID:A00085617</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -13406,6 +13259,328 @@
   <si>
     <t>apply:https://www.uvic.ca/BAN2P/bzskprog.p_selectprogram
 docs:http://www.uvic.ca/graduatestudies/admissions/admissions/beforeapplying/documents/index.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRE AW 4.0 요구한다. 하지말가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4W학비. (30학점 가정)
+Co-op 좋다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jinzheyu
+Nimama2013!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>교수랑 연락하자. !!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Please list Northeastern University faculty, staff, students or alumni members (if any) with whom you have consulted or corresponded regarding your application. Include contact dates using the MM/YYYY format.  </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Victoria
+돈있어. 
+Sept 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09/2006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07/2010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>General Test Scores</t>
+  </si>
+  <si>
+    <t>Test Date</t>
+  </si>
+  <si>
+    <t>Verbal Reasoning*</t>
+  </si>
+  <si>
+    <t>Quantitative Reasoning*</t>
+  </si>
+  <si>
+    <t>Analytical Writing</t>
+  </si>
+  <si>
+    <t>Prior Format</t>
+  </si>
+  <si>
+    <t>Current Format</t>
+  </si>
+  <si>
+    <t>Scaled Score</t>
+  </si>
+  <si>
+    <t>Estimated </t>
+  </si>
+  <si>
+    <t>Current Score</t>
+  </si>
+  <si>
+    <t>% Below</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>NS — No Score. Indicates that no questions were answered.</t>
+  </si>
+  <si>
+    <t>Registration Number:</t>
+  </si>
+  <si>
+    <t>View Scores</t>
+  </si>
+  <si>
+    <t>Request additional score reports</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Listening</t>
+  </si>
+  <si>
+    <t>Speaking</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>TELXML</t>
+  </si>
+  <si>
+    <t>Sun Jul 15 11:04:00 EDT 2012</t>
+  </si>
+  <si>
+    <t>Toefl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Registration Number: 0000000015597467</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03/25/2009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GT: INSTITUTIONAL CODE 3679, GRE Department Code 0402, and TOEFL Department Code 78.
+새버전 resume 와 맞춤형 PS를만들어 내기.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IIT
+September 1, 2013
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>先到先得 rolling,October 15</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeoksamdong Gangnam-gu, 831-47 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>820221945187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지메일
+Nimama2012
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CWID를  9/27까지 기다려야 PS, CV를 업뎃할수 있따.이건 아마 두번째 사이트에서 업데이트 하는것이다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.applyyourself.com/AYApplicantLogin/fl_ApplicantConnectLogin.asp?id=neu-grad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>The University of Kansas</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>堪</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>萨</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>斯大</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">学 oct 1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONEs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Central florida</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.students.graduate.ucf.edu/gradonlineapp/</t>
+  </si>
+  <si>
+    <t>gmail; Nimama2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concordia 
+e돈있어. ; montreal. 
+Oct 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://connect2.concordia.ca/concordia/admission/gradapplication.ezc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no coop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Winsdor
+January 1 for May admission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www1.uwindsor.ca/registrar/how-to-apply-0
+https://horizon.ouac.on.ca/webapp/prepare_main.d2w/report?ident=PREPAREAPP_DSP&amp;merchant_rn=810328</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS,CV는 어디서 업데잇?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Northeastern University 
+Nov 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">co-op </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">학비 너무 비쌈.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Co-op 가 없다면 갈 필요 있는가??</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데드라인 언제??</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13416,7 +13591,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13446,14 +13621,6 @@
       <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13504,38 +13671,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="굴림"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="새굴림"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF444444"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -13565,16 +13700,167 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF660019"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0A0A0A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0A0A0A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="새굴림"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBE5D5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E0EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -13582,12 +13868,288 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFBFA777"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFBFA777"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFBFA777"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFBBBBBB"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFBBBBBB"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFA777"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFA777"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBFA777"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFA777"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFBFA777"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFA777"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFBFA777"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBFA777"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFA777"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFA777"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFA777"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFA777"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFA777"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFBFA777"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFBBBBBB"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFBFA777"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFA777"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFBFA777"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFA777"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFA777"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFBFA777"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFBBBBBB"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBFA777"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFBFA777"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBFA777"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFA777"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFA777"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBBBBBB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFA777"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBBBBBB"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBBBBBB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFA777"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBBBBBB"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBBBBBB"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBBBBBB"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBBBBBB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBBBBBB"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBBBBBB"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBBBBBB"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFA777"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBBBBBB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBBBBBB"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFA777"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -13601,13 +14163,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -13619,51 +14181,173 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -13676,7 +14360,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -13962,16 +14646,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="15" customWidth="1"/>
+    <col min="1" max="1" width="14.75" style="14" customWidth="1"/>
     <col min="2" max="2" width="49.125" style="8" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.75" style="2" customWidth="1"/>
@@ -13983,7 +14667,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -14008,155 +14692,209 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>100</v>
+    <row r="2" spans="1:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>99</v>
+        <v>174</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>102</v>
+    <row r="3" spans="1:8" ht="205.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="66" t="s">
+        <v>172</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>106</v>
+        <v>159</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>96</v>
+        <v>119</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="9"/>
+    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>97</v>
+        <v>173</v>
+      </c>
+      <c r="G4" s="67" t="s">
+        <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="96.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
-        <v>98</v>
-      </c>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
+    <row r="9" spans="1:8" s="7" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>168</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>117</v>
+    <row r="11" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" ht="207" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>119</v>
-      </c>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="15"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
+      <c r="A18" s="15"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
+    <row r="19" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>95</v>
-      </c>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
+      <c r="A23" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="12"/>
+    <row r="25" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="9"/>
-      <c r="D42" s="6"/>
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="207" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="21"/>
-      <c r="B74" s="9"/>
+    <row r="35" spans="1:7" s="60" customFormat="1" ht="57.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" s="60" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="75" spans="1:2" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="21"/>
-      <c r="B75" s="10"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="9"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="18"/>
+      <c r="B73" s="9"/>
+    </row>
+    <row r="74" spans="1:2" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="18"/>
+      <c r="B74" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A23:G23"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1"/>
+    <hyperlink ref="B19" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B25" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7" display="http://www1.uwindsor.ca/registrar/how-to-apply-0"/>
+    <hyperlink ref="B35" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -14176,7 +14914,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
@@ -14241,7 +14979,7 @@
       <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -14560,233 +15298,261 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="22"/>
-    <col min="2" max="2" width="50.75" style="22" customWidth="1"/>
-    <col min="3" max="3" width="9" style="22"/>
-    <col min="4" max="4" width="33.125" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="22"/>
-    <col min="6" max="6" width="67.125" style="22" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="9" style="19"/>
+    <col min="2" max="2" width="50.75" style="19" customWidth="1"/>
+    <col min="3" max="3" width="9" style="19"/>
+    <col min="4" max="4" width="33.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="19"/>
+    <col min="6" max="6" width="67.125" style="19" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>103</v>
+      <c r="B3" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>76</v>
+      <c r="B4" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>73</v>
+      <c r="B5" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>59</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="20" t="s">
         <v>70</v>
+      </c>
+      <c r="D7" s="19">
+        <v>100081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="19" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
-        <v>77</v>
+      <c r="B10" s="19" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="22" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="19" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="22" t="s">
-        <v>125</v>
+      <c r="B14" s="19" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>108</v>
+      <c r="D16" s="19" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>109</v>
+      <c r="B17" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>110</v>
+      <c r="D18" s="20" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>111</v>
+      <c r="D19" s="19" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="20" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="22" t="s">
-        <v>121</v>
+      <c r="B23" s="19" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="22" t="s">
-        <v>122</v>
+      <c r="B24" s="19" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="23" t="s">
-        <v>123</v>
+      <c r="B25" s="20" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="22" t="s">
+      <c r="B26" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="19" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="20" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="22" t="s">
-        <v>104</v>
+      <c r="B35" s="19" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="22" t="s">
-        <v>105</v>
+      <c r="B36" s="19" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="19" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="19" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="22">
+      <c r="B56" s="19">
         <v>100081</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="20" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -14822,69 +15588,69 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -14894,4 +15660,259 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5" style="26" customWidth="1"/>
+    <col min="2" max="2" width="28.625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="26" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="26" customWidth="1"/>
+    <col min="5" max="5" width="9" style="26"/>
+    <col min="6" max="6" width="19" style="26" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" style="26" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="36"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="45"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="46"/>
+    </row>
+    <row r="6" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="47">
+        <v>400</v>
+      </c>
+      <c r="C6" s="47">
+        <v>146</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48">
+        <v>28</v>
+      </c>
+      <c r="F6" s="47">
+        <v>800</v>
+      </c>
+      <c r="G6" s="47">
+        <v>166</v>
+      </c>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48">
+        <v>94</v>
+      </c>
+      <c r="J6" s="47">
+        <v>3</v>
+      </c>
+      <c r="K6" s="48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="49"/>
+    </row>
+    <row r="8" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="52">
+        <v>7861033</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="55" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="56">
+        <v>28</v>
+      </c>
+      <c r="D17" s="56">
+        <v>26</v>
+      </c>
+      <c r="E17" s="56">
+        <v>24</v>
+      </c>
+      <c r="F17" s="56">
+        <v>27</v>
+      </c>
+      <c r="G17" s="56">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1" display="https://toefl-registration.ets.org/TOEFLWeb/reportmanagement/toModule.do?prefix=/order&amp;page=/selectProductTypes.do"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/spring_be_realistic.xlsx
+++ b/spring_be_realistic.xlsx
@@ -14226,22 +14226,7 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14250,37 +14235,10 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14328,9 +14286,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -14343,6 +14298,51 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -14650,7 +14650,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14710,7 +14710,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="205.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="51" t="s">
         <v>172</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -14733,7 +14733,7 @@
       <c r="A4" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="48" t="s">
         <v>163</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -14742,7 +14742,7 @@
       <c r="E4" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="52" t="s">
         <v>175</v>
       </c>
     </row>
@@ -14753,7 +14753,7 @@
       <c r="A9" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="49" t="s">
         <v>167</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -14767,7 +14767,7 @@
       <c r="A11" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="50" t="s">
         <v>170</v>
       </c>
       <c r="C11" s="5"/>
@@ -14790,39 +14790,19 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
     </row>
     <row r="25" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
@@ -14852,18 +14832,38 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="60" customFormat="1" ht="57.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="61" t="s">
+    <row r="35" spans="1:7" s="46" customFormat="1" ht="57.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="60" t="s">
+      <c r="E35" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="60" t="s">
+      <c r="G35" s="46" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -14884,7 +14884,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1"/>
+    <hyperlink ref="B36" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="B25" r:id="rId3"/>
     <hyperlink ref="B3" r:id="rId4"/>
@@ -15692,138 +15692,138 @@
       <c r="A2" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="28" t="s">
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="28" t="s">
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="K2" s="30"/>
+      <c r="K2" s="64"/>
     </row>
     <row r="3" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="32" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34" t="s">
+      <c r="G3" s="66"/>
+      <c r="H3" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="36"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="67"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="K4" s="54" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44" t="s">
+      <c r="D5" s="61"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="46"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="55"/>
     </row>
     <row r="6" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="33">
         <v>400</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="33">
         <v>146</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48">
+      <c r="D6" s="33"/>
+      <c r="E6" s="34">
         <v>28</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="33">
         <v>800</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="33">
         <v>166</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48">
+      <c r="H6" s="33"/>
+      <c r="I6" s="34">
         <v>94</v>
       </c>
-      <c r="J6" s="47">
+      <c r="J6" s="33">
         <v>3</v>
       </c>
-      <c r="K6" s="48">
+      <c r="K6" s="34">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="35"/>
     </row>
     <row r="8" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="36" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B9" s="38">
         <v>7861033</v>
       </c>
     </row>
@@ -15838,61 +15838,67 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="40" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="41" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="56">
+      <c r="C17" s="42">
         <v>28</v>
       </c>
-      <c r="D17" s="56">
+      <c r="D17" s="42">
         <v>26</v>
       </c>
-      <c r="E17" s="56">
+      <c r="E17" s="42">
         <v>24</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="42">
         <v>27</v>
       </c>
-      <c r="G17" s="56">
+      <c r="G17" s="42">
         <v>105</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
@@ -15902,12 +15908,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/spring_be_realistic.xlsx
+++ b/spring_be_realistic.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="178">
   <si>
     <t>Univ</t>
   </si>
@@ -13276,31 +13276,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>교수랑 연락하자. !!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Please list Northeastern University faculty, staff, students or alumni members (if any) with whom you have consulted or corresponded regarding your application. Include contact dates using the MM/YYYY format.  </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>University of Victoria
 돈있어. 
 Sept 15</t>
@@ -13399,11 +13374,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GT: INSTITUTIONAL CODE 3679, GRE Department Code 0402, and TOEFL Department Code 78.
-새버전 resume 와 맞춤형 PS를만들어 내기.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">IIT
 September 1, 2013
@@ -13441,11 +13411,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">CWID를  9/27까지 기다려야 PS, CV를 업뎃할수 있따.이건 아마 두번째 사이트에서 업데이트 하는것이다.
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://app.applyyourself.com/AYApplicantLogin/fl_ApplicantConnectLogin.asp?id=neu-grad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13510,13 +13475,6 @@
   </si>
   <si>
     <t>University of Central florida</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.students.graduate.ucf.edu/gradonlineapp/</t>
-  </si>
-  <si>
-    <t>gmail; Nimama2013</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -13530,10 +13488,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://connect2.concordia.ca/concordia/admission/gradapplication.ezc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>no coop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13580,7 +13534,110 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>데드라인 언제??</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>교수랑 연락하자. !!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Please list Northeastern University faculty, staff, students or alumni members (if any) with whom you have consulted or corresponded regarding your application. Include contact dates using the MM/YYYY format.  
+Application info tab에 있음.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.students.graduate.ucf.edu/gradonlineapp/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmail; Nimama2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jinzheyu
+Nimama2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://connect2.concordia.ca/concordia/admission/gradapplication.ezc
+https://sims.concordia.ca/waa/uiUserPage.asp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절반쯤 신청.
+Interest 에서 학교 연구진 역량 알아보고 방향 선택 하기.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데드라인 언제??
+절반쯤 신청됐다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CWID를  9/27까지 기다려야 PS, CV를 업뎃할수 있따.이건 아마 두번째 사이트에서 업데이트 하는것이다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GT: INSTITUTIONAL CODE 3679, GRE Department Code 0402, and TOEFL Department Code 78.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">새버전 resume 와 맞춤형 PS를만들어 내기.
+요구하는 문서가 많다. 준비하는데 시간이 많이 걸릴수도 있으니까, 이런것들은 천천히 하자. 일단은 교수진이랑 연락을 취하는게 급선무.
+신청표에서 내가 관심있다고 말한것: networks, AI, SE, lang &amp; compiler, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수정해야돼.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Networks:Christo Wilson
+AI: Vona; David Smith
+lang:쪽 교수들은 나이들어 보인다.별로다. 
+SE: 두명의 늙은교수뿐. 별로다.
+</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13591,7 +13648,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13822,6 +13879,23 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -14149,7 +14223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -14343,6 +14417,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -14648,9 +14725,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14694,27 +14771,27 @@
     </row>
     <row r="2" spans="1:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="205.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A3" s="51" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>120</v>
@@ -14723,27 +14800,10 @@
         <v>119</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G4" s="52" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -14751,29 +14811,52 @@
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>167</v>
+        <v>173</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>171</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -14795,7 +14878,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="53" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B23" s="53"/>
       <c r="C23" s="53"/>
@@ -14820,7 +14903,7 @@
     </row>
     <row r="26" spans="1:7" s="7" customFormat="1" ht="207" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>117</v>
@@ -14834,7 +14917,7 @@
     </row>
     <row r="35" spans="1:7" s="46" customFormat="1" ht="57.75" x14ac:dyDescent="0.3">
       <c r="A35" s="47" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B35" s="45" t="s">
         <v>95</v>
@@ -14888,8 +14971,8 @@
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="B25" r:id="rId3"/>
     <hyperlink ref="B3" r:id="rId4"/>
-    <hyperlink ref="B4" r:id="rId5"/>
-    <hyperlink ref="B9" r:id="rId6"/>
+    <hyperlink ref="B12" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6" display="https://connect2.concordia.ca/concordia/admission/gradapplication.ezc"/>
     <hyperlink ref="B11" r:id="rId7" display="http://www1.uwindsor.ca/registrar/how-to-apply-0"/>
     <hyperlink ref="B35" r:id="rId8"/>
   </hyperlinks>
@@ -15336,7 +15419,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>74</v>
@@ -15347,7 +15430,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>71</v>
@@ -15374,15 +15457,15 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D9" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -15685,46 +15768,46 @@
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="62" t="s">
         <v>126</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>127</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
       <c r="E2" s="64"/>
       <c r="F2" s="62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G2" s="63"/>
       <c r="H2" s="63"/>
       <c r="I2" s="64"/>
       <c r="J2" s="62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K2" s="64"/>
     </row>
     <row r="3" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="28"/>
       <c r="B3" s="65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G3" s="66"/>
       <c r="H3" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I3" s="30"/>
       <c r="J3" s="65"/>
@@ -15733,47 +15816,47 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="58"/>
       <c r="B4" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>133</v>
-      </c>
       <c r="D4" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="H4" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="J4" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="H4" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="I4" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="J4" s="56" t="s">
-        <v>136</v>
-      </c>
       <c r="K4" s="54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="59"/>
       <c r="B5" s="57"/>
       <c r="C5" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D5" s="61"/>
       <c r="E5" s="55"/>
       <c r="F5" s="57"/>
       <c r="G5" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H5" s="61"/>
       <c r="I5" s="55"/>
@@ -15782,7 +15865,7 @@
     </row>
     <row r="6" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" s="33">
         <v>400</v>
@@ -15816,12 +15899,12 @@
     </row>
     <row r="8" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="38">
         <v>7861033</v>
@@ -15829,51 +15912,51 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="41" t="s">
+      <c r="D16" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="E16" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="F16" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="G16" s="41" t="s">
         <v>145</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="43" t="s">
         <v>147</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>148</v>
       </c>
       <c r="C17" s="42">
         <v>28</v>

--- a/spring_be_realistic.xlsx
+++ b/spring_be_realistic.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="180">
   <si>
     <t>Univ</t>
   </si>
@@ -13247,18 +13247,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>교수한테 메일써 물어봐야돼. 학비는 거의 3.5만 달러 들거 같은데, 내 저축으로 가능하겠다.
-http://www.csc.uvic.ca/Program_Information/Graduate_Studies/msc_program.htm#ThesisCourses</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>25237AK8445
 Nimama2013!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply:https://www.uvic.ca/BAN2P/bzskprog.p_selectprogram
-docs:http://www.uvic.ca/graduatestudies/admissions/admissions/beforeapplying/documents/index.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -13637,6 +13627,45 @@
 lang:쪽 교수들은 나이들어 보인다.별로다. 
 SE: 두명의 늙은교수뿐. 별로다.
 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수한테 메일써 물어봐야돼. 학비는 거의 3.5만 달러 들거 같은데, 내 저축으로 가능하겠다.
+http://www.csc.uvic.ca/Program_Information/Graduate_Studies/msc_program.htm#ThesisCourses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply:https://www.uvic.ca/BAN2P/bzskprog.p_selectprogram
+docs:http://www.uvic.ca/graduatestudies/admissions/admissions/beforeapplying/documents/index.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">관심가는 방향을 안 적었다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Daniel M German 는 학생을 안 받을거 같다.
+Alex Thomo 는 중국애들 안받을거 같다
+Daniela Damian:X
+Melanie Tory: X
+David Goodenough: X
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Margaret-Anne Storey: SE 하는 교수, 한번 메일 보내자.
+Jianping Pan: nwtwork, protocol, IP-TV! 중국인이다. 괜찮은거 같아
+Hausi A. Müller
+Nigel Horspool: lang</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -14373,8 +14402,29 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -14399,27 +14449,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -14725,9 +14754,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14771,39 +14800,39 @@
     </row>
     <row r="2" spans="1:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A3" s="51" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -14811,52 +14840,52 @@
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="53" t="s">
         <v>172</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G9" s="68" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -14867,27 +14896,27 @@
       <c r="A16" s="15"/>
       <c r="B16" s="9"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
     </row>
-    <row r="25" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>105</v>
       </c>
@@ -14895,29 +14924,35 @@
         <v>106</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" ht="207" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="7" customFormat="1" ht="312" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>108</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>115</v>
+        <v>176</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="46" customFormat="1" ht="57.75" x14ac:dyDescent="0.3">
       <c r="A35" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B35" s="45" t="s">
         <v>95</v>
@@ -14926,7 +14961,7 @@
         <v>94</v>
       </c>
       <c r="G35" s="46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -15419,7 +15454,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>74</v>
@@ -15430,7 +15465,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>71</v>
@@ -15457,15 +15492,15 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D9" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -15768,104 +15803,104 @@
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="K2" s="64"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="28"/>
-      <c r="B3" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="66"/>
+      <c r="B3" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="59"/>
       <c r="D3" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E3" s="30"/>
-      <c r="F3" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="66"/>
+      <c r="F3" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="59"/>
       <c r="H3" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I3" s="30"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="67"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
-      <c r="B4" s="56" t="s">
-        <v>131</v>
+      <c r="A4" s="65"/>
+      <c r="B4" s="63" t="s">
+        <v>129</v>
       </c>
       <c r="C4" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>131</v>
+      <c r="F4" s="63" t="s">
+        <v>129</v>
       </c>
       <c r="G4" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="H4" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="I4" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="J4" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="K4" s="54" t="s">
-        <v>134</v>
+      <c r="J4" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="61" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="59"/>
-      <c r="B5" s="57"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="57"/>
+        <v>131</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="55"/>
+        <v>131</v>
+      </c>
+      <c r="H5" s="68"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="62"/>
     </row>
     <row r="6" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="44" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B6" s="33">
         <v>400</v>
@@ -15899,12 +15934,12 @@
     </row>
     <row r="8" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B9" s="38">
         <v>7861033</v>
@@ -15912,51 +15947,51 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="41" t="s">
+      <c r="E16" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="F16" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="G16" s="41" t="s">
         <v>143</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C17" s="42">
         <v>28</v>
@@ -15976,12 +16011,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J3:K3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
@@ -15991,6 +16020,12 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/spring_be_realistic.xlsx
+++ b/spring_be_realistic.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="5280" windowHeight="7950"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="182">
   <si>
     <t>Univ</t>
   </si>
@@ -691,10 +691,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://welcome.iit.edu/Prod/Pages/Login.aspx?ReturnUrl=/Prod/Pages/Application.aspx?id=e58506e6-0512-e311-9d08-00505690011b&amp;NeedsLogin=True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Carlos Lucas</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13261,11 +13257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jinzheyu
-Nimama2013!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>University of Victoria
 돈있어. 
 Sept 15</t>
@@ -13364,26 +13355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">IIT
-September 1, 2013
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>先到先得 rolling,October 15</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Yeoksamdong Gangnam-gu, 831-47 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13393,12 +13364,6 @@
   </si>
   <si>
     <t>820221945187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지메일
-Nimama2012
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://app.applyyourself.com/AYApplicantLogin/fl_ApplicantConnectLogin.asp?id=neu-grad</t>
@@ -13461,10 +13426,6 @@
   </si>
   <si>
     <t>DONEs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Central florida</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -13478,10 +13439,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>no coop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Winsdor
 January 1 for May admission</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -13524,45 +13481,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>교수랑 연락하자. !!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Please list Northeastern University faculty, staff, students or alumni members (if any) with whom you have consulted or corresponded regarding your application. Include contact dates using the MM/YYYY format.  
-Application info tab에 있음.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.students.graduate.ucf.edu/gradonlineapp/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gmail; Nimama2013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jinzheyu
-Nimama2013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://connect2.concordia.ca/concordia/admission/gradapplication.ezc
 https://sims.concordia.ca/waa/uiUserPage.asp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -13575,59 +13493,6 @@
   <si>
     <t>데드라인 언제??
 절반쯤 신청됐다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CWID를  9/27까지 기다려야 PS, CV를 업뎃할수 있따.이건 아마 두번째 사이트에서 업데이트 하는것이다.
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">GT: INSTITUTIONAL CODE 3679, GRE Department Code 0402, and TOEFL Department Code 78.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">새버전 resume 와 맞춤형 PS를만들어 내기.
-요구하는 문서가 많다. 준비하는데 시간이 많이 걸릴수도 있으니까, 이런것들은 천천히 하자. 일단은 교수진이랑 연락을 취하는게 급선무.
-신청표에서 내가 관심있다고 말한것: networks, AI, SE, lang &amp; compiler, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수정해야돼.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Networks:Christo Wilson
-AI: Vona; David Smith
-lang:쪽 교수들은 나이들어 보인다.별로다. 
-SE: 두명의 늙은교수뿐. 별로다.
-</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -13662,10 +13527,159 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Margaret-Anne Storey: SE 하는 교수, 한번 메일 보내자.
+      <t xml:space="preserve">
 Jianping Pan: nwtwork, protocol, IP-TV! 중국인이다. 괜찮은거 같아
-Hausi A. Müller
-Nigel Horspool: lang</t>
+Daniela Damian: SE, requrement engineering
+Nigel Horspool: lang, 하지만 이영감 현재는 아무것도 안하는거 같다.. 너무 늙었나..
+Hausi A. Müller: 연구방향이 뭔지 모르겠다. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jinzheyu
+Nimama2013!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>교수랑 연락하자. !!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Please list Northeastern University faculty, staff, students or alumni members (if any) with whom you have consulted or corresponded regarding your application. Include contact dates using the MM/YYYY format.  
+Application info tab에 있음.
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GT: INSTITUTIONAL CODE 3679, GRE Department Code 0402, and TOEFL Department Code 78.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+lang:쪽 교수들은 나이들어 보인다.별로다. 
+SE: 두명의 늙은교수뿐. 별로다.
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yizhou Sun: 메일 보냈다..
+Networks:Christo Wilson
+AI: Vona; David Smith
+Marsette Vona: 관심은 있지만, first choice는 아니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jinzheyu
+Nimama2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">no coop
+https://sims.concordia.ca/waa/uiAppGradReferences1.asp  여기서 얘기하기로, academic </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>assesment form을 추천인들한테서 한벌씩 받아 와야 한다고 하는데… 썅..</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.students.graduate.ucf.edu/gradonlineapp/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmail; Nimama2013
+Your unique ID is: 10050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Central florida
+Jan 15 Fall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지메일
+Nimama2012
+Be sure to check the Applicant Portal to monitor the status of your application!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nimama2012</t>
+  </si>
+  <si>
+    <t>https://welcome.iit.edu/Prod/Pages/Login.aspx?ReturnUrl=/Prod/Pages/Application.aspx?id=e58506e6-0512-e311-9d08-00505690011b&amp;NeedsLogin=True
+https://my125.iit.edu/gradportal/student/applications.html?ap=1#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Official Scores must be sent from ETS to IIT - use code 1318
+두번째 사이트에서 항상 모니터링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IIT
+September 1, 2013
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>先到先得 October 15</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13677,7 +13691,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13915,15 +13929,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -14452,8 +14457,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -14466,7 +14471,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -14755,8 +14760,8 @@
   <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14765,7 +14770,7 @@
     <col min="2" max="2" width="49.125" style="8" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="2"/>
     <col min="7" max="7" width="28.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="22" style="2" customWidth="1"/>
@@ -14798,94 +14803,59 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" s="53" t="s">
-        <v>172</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" s="52" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G12" s="52" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -14907,7 +14877,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="54" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B23" s="54"/>
       <c r="C23" s="54"/>
@@ -14916,43 +14886,86 @@
       <c r="F23" s="54"/>
       <c r="G23" s="54"/>
     </row>
+    <row r="24" spans="1:8" ht="266.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
     <row r="25" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="7" customFormat="1" ht="312" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="7" customFormat="1" ht="155.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G27" s="53" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="46" customFormat="1" ht="57.75" x14ac:dyDescent="0.3">
       <c r="A35" s="47" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B35" s="45" t="s">
         <v>95</v>
@@ -14961,7 +14974,7 @@
         <v>94</v>
       </c>
       <c r="G35" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -15003,11 +15016,11 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B36" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://welcome.iit.edu/Prod/Pages/Login.aspx?ReturnUrl=/Prod/Pages/Application.aspx?id=e58506e6-0512-e311-9d08-00505690011b&amp;NeedsLogin=True"/>
     <hyperlink ref="B25" r:id="rId3"/>
-    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="B24" r:id="rId4"/>
     <hyperlink ref="B12" r:id="rId5"/>
-    <hyperlink ref="B9" r:id="rId6" display="https://connect2.concordia.ca/concordia/admission/gradapplication.ezc"/>
+    <hyperlink ref="B27" r:id="rId6" display="https://connect2.concordia.ca/concordia/admission/gradapplication.ezc"/>
     <hyperlink ref="B11" r:id="rId7" display="http://www1.uwindsor.ca/registrar/how-to-apply-0"/>
     <hyperlink ref="B35" r:id="rId8"/>
   </hyperlinks>
@@ -15032,7 +15045,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
@@ -15416,8 +15429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15454,7 +15467,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>74</v>
@@ -15465,7 +15478,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>71</v>
@@ -15492,15 +15505,15 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D9" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -15521,7 +15534,7 @@
     <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -15534,15 +15547,15 @@
         <v>51</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
@@ -15550,7 +15563,7 @@
         <v>53</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
@@ -15558,7 +15571,7 @@
         <v>49</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
@@ -15568,22 +15581,22 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>61</v>
@@ -15803,46 +15816,46 @@
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
       <c r="E2" s="57"/>
       <c r="F2" s="55" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G2" s="56"/>
       <c r="H2" s="56"/>
       <c r="I2" s="57"/>
       <c r="J2" s="55" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="28"/>
       <c r="B3" s="58" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C3" s="59"/>
       <c r="D3" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="58" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G3" s="59"/>
       <c r="H3" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I3" s="30"/>
       <c r="J3" s="58"/>
@@ -15851,47 +15864,47 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
       <c r="B4" s="63" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C4" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="61" t="s">
-        <v>132</v>
-      </c>
       <c r="F4" s="63" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G4" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="H4" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4" s="61" t="s">
-        <v>132</v>
-      </c>
       <c r="J4" s="63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K4" s="61" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="66"/>
       <c r="B5" s="64"/>
       <c r="C5" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D5" s="68"/>
       <c r="E5" s="62"/>
       <c r="F5" s="64"/>
       <c r="G5" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H5" s="68"/>
       <c r="I5" s="62"/>
@@ -15900,7 +15913,7 @@
     </row>
     <row r="6" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="44" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B6" s="33">
         <v>400</v>
@@ -15934,12 +15947,12 @@
     </row>
     <row r="8" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B9" s="38">
         <v>7861033</v>
@@ -15947,51 +15960,51 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="B16" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="41" t="s">
+      <c r="E16" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="F16" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="G16" s="41" t="s">
         <v>141</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C17" s="42">
         <v>28</v>

--- a/spring_be_realistic.xlsx
+++ b/spring_be_realistic.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="173">
   <si>
     <t>Univ</t>
   </si>
@@ -580,14 +580,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">TAMU </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nimama2013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Seoul</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -620,10 +612,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>g/t REPORTED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전부 OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -656,54 +644,373 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">NID:623002740
-jin1134
+    <t>3rd Flr,Gwangseong Bldg,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRE reg num:7861033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOEFL: JUL 15, 2012   reg num:0000000015597467</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carlos Lucas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VP General Manager EU/US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carlos.lucas@nexstreaming.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+34637463803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USC
+Fall Semester - Jan 15th. 
+Spring Semester - Sep 15th</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.usc.edu/admission/graduate/applyonline/
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://cas.tamu.edu/cas/login?service=https://applicant.tamu.edu/CAS3Login.aspx</t>
+    <t>이학교의 program 에서 이해가 안되는 부분이 있다. 전공항목까지 선택해야 되나?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현재는 2단계..
-3단계 가기전에 뭘 더 해야 되나?</t>
+    <t>PW:caonim
+ID:A00085617</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>학비싸다.</t>
+    <t>Jong-Deuk KIM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://shibboleth-idp.collegenet.com/idp/Authn/UserPassword</t>
+    <t>Head of Application Group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3rd Flr,Gwangseong Bldg,</t>
+    <t>jd.kim@nexstreaming.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GRE reg num:7861033</t>
+    <t>+(82)02-2194-5360</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TOEFL: JUL 15, 2012   reg num:0000000015597467</t>
+    <t>Head of Platform Group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Carlos Lucas</t>
+    <t>eric.yoo@nexstreaming.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VP General Manager EU/US</t>
+    <t>25237AK8445
+Nimama2013!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>carlos.lucas@nexstreaming.com</t>
+    <t>University of Victoria
+돈있어. 
+Sept 15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+34637463803</t>
+    <t>09/2006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07/2010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>General Test Scores</t>
+  </si>
+  <si>
+    <t>Test Date</t>
+  </si>
+  <si>
+    <t>Verbal Reasoning*</t>
+  </si>
+  <si>
+    <t>Quantitative Reasoning*</t>
+  </si>
+  <si>
+    <t>Analytical Writing</t>
+  </si>
+  <si>
+    <t>Prior Format</t>
+  </si>
+  <si>
+    <t>Current Format</t>
+  </si>
+  <si>
+    <t>Scaled Score</t>
+  </si>
+  <si>
+    <t>Estimated </t>
+  </si>
+  <si>
+    <t>Current Score</t>
+  </si>
+  <si>
+    <t>% Below</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>NS — No Score. Indicates that no questions were answered.</t>
+  </si>
+  <si>
+    <t>Registration Number:</t>
+  </si>
+  <si>
+    <t>View Scores</t>
+  </si>
+  <si>
+    <t>Request additional score reports</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Listening</t>
+  </si>
+  <si>
+    <t>Speaking</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>TELXML</t>
+  </si>
+  <si>
+    <t>Sun Jul 15 11:04:00 EDT 2012</t>
+  </si>
+  <si>
+    <t>Toefl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Registration Number: 0000000015597467</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03/25/2009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeoksamdong Gangnam-gu, 831-47 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>820221945187</t>
+  </si>
+  <si>
+    <t>https://app.applyyourself.com/AYApplicantLogin/fl_ApplicantConnectLogin.asp?id=neu-grad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONEs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concordia 
+e돈있어. ; montreal. 
+Oct 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www1.uwindsor.ca/registrar/how-to-apply-0
+https://horizon.ouac.on.ca/webapp/prepare_main.d2w/report?ident=PREPAREAPP_DSP&amp;merchant_rn=810328</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">학비 너무 비쌈.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Co-op 가 없다면 갈 필요 있는가??</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수한테 메일써 물어봐야돼. 학비는 거의 3.5만 달러 들거 같은데, 내 저축으로 가능하겠다.
+http://www.csc.uvic.ca/Program_Information/Graduate_Studies/msc_program.htm#ThesisCourses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Daniel M German 는 학생을 안 받을거 같다.
+Alex Thomo 는 중국애들 안받을거 같다
+Daniela Damian:X
+Melanie Tory: X
+David Goodenough: X
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Jianping Pan: nwtwork, protocol, IP-TV! 중국인이다. 괜찮은거 같아
+Daniela Damian: SE, requrement engineering
+Nigel Horspool: lang, 하지만 이영감 현재는 아무것도 안하는거 같다.. 너무 늙었나..
+Hausi A. Müller: 연구방향이 뭔지 모르겠다. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jinzheyu
+Nimama2013!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>교수랑 연락하자. !!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Please list Northeastern University faculty, staff, students or alumni members (if any) with whom you have consulted or corresponded regarding your application. Include contact dates using the MM/YYYY format.  
+Application info tab에 있음.
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.students.graduate.ucf.edu/gradonlineapp/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmail; Nimama2013
+Your unique ID is: 10050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Central florida
+Jan 15 Fall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nimama2012</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IIT
+September 1, 2013
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>先到先得 October 15</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply:https://www.uvic.ca/BAN2P/bzskprog.p_selectprogram
+docs:http://www.uvic.ca/graduatestudies/admissions/admissions/beforeapplying/documents/index.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데드라인 언제??
+절반쯤 신청됐다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://welcome.iit.edu/Prod/Pages/Login.aspx?ReturnUrl=/Prod/Pages/Application.aspx?id=e58506e6-0512-e311-9d08-00505690011b&amp;NeedsLogin=True
+https://my125.iit.edu/gradportal/student/applications.html?ap=1#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지메일
+Nimama2012
+Be sure to check the Applicant Portal to monitor the status of your application!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GT보냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절반쯤 신청.
+Interest 에서 학교 연구진 역량 알아보고 방향 선택 하기.
+G안보내도돼.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jinzheyu
+Nimama2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://connect2.concordia.ca/concordia/admission/gradapplication.ezc
+https://sims.concordia.ca/waa/uiUserPage.asp
+https://www.myconcordia.ca  에서 상태확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">co-op </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -13199,390 +13506,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USC
-Fall Semester - Jan 15th. 
-Spring Semester - Sep 15th</t>
+    <t>싸다.
+Your netname is J_ZHEYU
+Your password is Xi0Gt1mSETFo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">http://www.usc.edu/admission/graduate/applyonline/
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이학교의 program 에서 이해가 안되는 부분이 있다. 전공항목까지 선택해야 되나?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PW:caonim
-ID:A00085617</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jong-Deuk KIM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Head of Application Group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jd.kim@nexstreaming.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+(82)02-2194-5360</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Head of Platform Group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eric.yoo@nexstreaming.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25237AK8445
-Nimama2013!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRE AW 4.0 요구한다. 하지말가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4W학비. (30학점 가정)
-Co-op 좋다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Victoria
-돈있어. 
-Sept 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09/2006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07/2010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>General Test Scores</t>
-  </si>
-  <si>
-    <t>Test Date</t>
-  </si>
-  <si>
-    <t>Verbal Reasoning*</t>
-  </si>
-  <si>
-    <t>Quantitative Reasoning*</t>
-  </si>
-  <si>
-    <t>Analytical Writing</t>
-  </si>
-  <si>
-    <t>Prior Format</t>
-  </si>
-  <si>
-    <t>Current Format</t>
-  </si>
-  <si>
-    <t>Scaled Score</t>
-  </si>
-  <si>
-    <t>Estimated </t>
-  </si>
-  <si>
-    <t>Current Score</t>
-  </si>
-  <si>
-    <t>% Below</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>NS — No Score. Indicates that no questions were answered.</t>
-  </si>
-  <si>
-    <t>Registration Number:</t>
-  </si>
-  <si>
-    <t>View Scores</t>
-  </si>
-  <si>
-    <t>Request additional score reports</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Listening</t>
-  </si>
-  <si>
-    <t>Speaking</t>
-  </si>
-  <si>
-    <t>Writing</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>TELXML</t>
-  </si>
-  <si>
-    <t>Sun Jul 15 11:04:00 EDT 2012</t>
-  </si>
-  <si>
-    <t>Toefl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Registration Number: 0000000015597467</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03/25/2009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Yeoksamdong Gangnam-gu, 831-47 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>135080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>820221945187</t>
-  </si>
-  <si>
-    <t>https://app.applyyourself.com/AYApplicantLogin/fl_ApplicantConnectLogin.asp?id=neu-grad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>The University of Kansas</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>堪</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="새굴림"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>萨</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>斯大</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="새굴림"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">学 oct 1. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DONEs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>싸다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Concordia 
-e돈있어. ; montreal. 
-Oct 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Winsdor
-January 1 for May admission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www1.uwindsor.ca/registrar/how-to-apply-0
-https://horizon.ouac.on.ca/webapp/prepare_main.d2w/report?ident=PREPAREAPP_DSP&amp;merchant_rn=810328</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS,CV는 어디서 업데잇?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Northeastern University 
-Nov 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">co-op </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">학비 너무 비쌈.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Co-op 가 없다면 갈 필요 있는가??</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://connect2.concordia.ca/concordia/admission/gradapplication.ezc
-https://sims.concordia.ca/waa/uiUserPage.asp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>절반쯤 신청.
-Interest 에서 학교 연구진 역량 알아보고 방향 선택 하기.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데드라인 언제??
-절반쯤 신청됐다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교수한테 메일써 물어봐야돼. 학비는 거의 3.5만 달러 들거 같은데, 내 저축으로 가능하겠다.
-http://www.csc.uvic.ca/Program_Information/Graduate_Studies/msc_program.htm#ThesisCourses</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apply:https://www.uvic.ca/BAN2P/bzskprog.p_selectprogram
-docs:http://www.uvic.ca/graduatestudies/admissions/admissions/beforeapplying/documents/index.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">관심가는 방향을 안 적었다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Daniel M German 는 학생을 안 받을거 같다.
-Alex Thomo 는 중국애들 안받을거 같다
-Daniela Damian:X
-Melanie Tory: X
-David Goodenough: X
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Jianping Pan: nwtwork, protocol, IP-TV! 중국인이다. 괜찮은거 같아
-Daniela Damian: SE, requrement engineering
-Nigel Horspool: lang, 하지만 이영감 현재는 아무것도 안하는거 같다.. 너무 늙었나..
-Hausi A. Müller: 연구방향이 뭔지 모르겠다. </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jinzheyu
-Nimama2013!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>교수랑 연락하자. !!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Please list Northeastern University faculty, staff, students or alumni members (if any) with whom you have consulted or corresponded regarding your application. Include contact dates using the MM/YYYY format.  
-Application info tab에 있음.
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">GT: INSTITUTIONAL CODE 3679, GRE Department Code 0402, and TOEFL Department Code 78.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
+    <r>
+      <t>GT: INSTITUTIONAL CODE 3679, GRE Department Code 0402, and TOEFL Department Code 78.
+GT보냄</t>
     </r>
     <r>
       <rPr>
@@ -13601,20 +13533,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Yizhou Sun: 메일 보냈다..
+    <t>Official Scores must be sent from ETS to IIT - use code 1318
+GT보냄
+두번째 사이트에서 항상 모니터링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Winsdor
+January 1 for May admission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yizhou Sun: 메일 보냈다.. 다른사람 시도.
 Networks:Christo Wilson
 AI: Vona; David Smith
 Marsette Vona: 관심은 있지만, first choice는 아니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jinzheyu
-Nimama2013</t>
+    <r>
+      <t>Northeastern University 
+Nov 15
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이학교 집중공략하자..</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">no coop
+      <t xml:space="preserve">4W학비. (30학점 가정)
+Co-op 좋다
+Official transcripts from all colleges/universities attended indicating degree earned can be submitted at the time of admission: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">성적표 아직 안바쳐도 된다. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입학 허가를 받은다음 성적표 보낸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">입학 허가를 받은다음 성적표 보낸다.
+no coop
 https://sims.concordia.ca/waa/uiAppGradReferences1.asp  여기서 얘기하기로, academic </t>
     </r>
     <r>
@@ -13631,56 +13626,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.students.graduate.ucf.edu/gradonlineapp/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gmail; Nimama2013
-Your unique ID is: 10050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Central florida
-Jan 15 Fall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지메일
-Nimama2012
-Be sure to check the Applicant Portal to monitor the status of your application!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nimama2012</t>
-  </si>
-  <si>
-    <t>https://welcome.iit.edu/Prod/Pages/Login.aspx?ReturnUrl=/Prod/Pages/Application.aspx?id=e58506e6-0512-e311-9d08-00505690011b&amp;NeedsLogin=True
-https://my125.iit.edu/gradportal/student/applications.html?ap=1#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Official Scores must be sent from ETS to IIT - use code 1318
-두번째 사이트에서 항상 모니터링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">IIT
-September 1, 2013
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>先到先得 October 15</t>
-    </r>
+    <t>PS,CV는 어디서 업데잇?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13691,7 +13637,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13900,26 +13846,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="굴림"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="새굴림"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -13929,6 +13855,15 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -14401,13 +14336,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -14760,8 +14695,8 @@
   <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14805,19 +14740,19 @@
     </row>
     <row r="2" spans="1:8" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -14825,37 +14760,39 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="E11" s="5" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -14877,7 +14814,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="54" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B23" s="54"/>
       <c r="C23" s="54"/>
@@ -14888,116 +14825,96 @@
     </row>
     <row r="24" spans="1:8" ht="266.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="51" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="7" customFormat="1" ht="312" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="7" customFormat="1" ht="155.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="7" customFormat="1" ht="138" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G27" s="53" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="46" customFormat="1" ht="57.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="B35" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="G35" s="46" t="s">
-        <v>115</v>
-      </c>
+    <row r="35" spans="1:4" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="47"/>
+      <c r="B35" s="45"/>
     </row>
-    <row r="36" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>93</v>
-      </c>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="13"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41" s="9"/>
       <c r="D41" s="6"/>
     </row>
@@ -15015,17 +14932,15 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B36" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://welcome.iit.edu/Prod/Pages/Login.aspx?ReturnUrl=/Prod/Pages/Application.aspx?id=e58506e6-0512-e311-9d08-00505690011b&amp;NeedsLogin=True"/>
-    <hyperlink ref="B25" r:id="rId3"/>
-    <hyperlink ref="B24" r:id="rId4"/>
-    <hyperlink ref="B12" r:id="rId5"/>
-    <hyperlink ref="B27" r:id="rId6" display="https://connect2.concordia.ca/concordia/admission/gradapplication.ezc"/>
-    <hyperlink ref="B11" r:id="rId7" display="http://www1.uwindsor.ca/registrar/how-to-apply-0"/>
-    <hyperlink ref="B35" r:id="rId8"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://welcome.iit.edu/Prod/Pages/Login.aspx?ReturnUrl=/Prod/Pages/Application.aspx?id=e58506e6-0512-e311-9d08-00505690011b&amp;NeedsLogin=True"/>
+    <hyperlink ref="B25" r:id="rId2"/>
+    <hyperlink ref="B24" r:id="rId3"/>
+    <hyperlink ref="B12" r:id="rId4"/>
+    <hyperlink ref="B27" r:id="rId5" display="https://connect2.concordia.ca/concordia/admission/gradapplication.ezc"/>
+    <hyperlink ref="B11" r:id="rId6" display="http://www1.uwindsor.ca/registrar/how-to-apply-0"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -15033,9 +14948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15045,7 +14958,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
@@ -15459,7 +15372,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>57</v>
@@ -15467,10 +15380,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>40</v>
@@ -15478,7 +15391,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>71</v>
@@ -15505,20 +15418,20 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D9" s="19" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
@@ -15534,7 +15447,7 @@
     <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="19" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -15547,15 +15460,15 @@
         <v>51</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="20" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
@@ -15563,7 +15476,7 @@
         <v>53</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
@@ -15571,7 +15484,7 @@
         <v>49</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
@@ -15581,22 +15494,22 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="19" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="19" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="20" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="19" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>61</v>
@@ -15634,12 +15547,12 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="19" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="19" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
@@ -15719,69 +15632,69 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -15816,46 +15729,46 @@
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
       <c r="E2" s="57"/>
       <c r="F2" s="55" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G2" s="56"/>
       <c r="H2" s="56"/>
       <c r="I2" s="57"/>
       <c r="J2" s="55" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="28"/>
       <c r="B3" s="58" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C3" s="59"/>
       <c r="D3" s="29" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="58" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G3" s="59"/>
       <c r="H3" s="29" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="I3" s="30"/>
       <c r="J3" s="58"/>
@@ -15864,47 +15777,47 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
       <c r="B4" s="63" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E4" s="61" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F4" s="63" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="H4" s="67" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="I4" s="61" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K4" s="61" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="66"/>
       <c r="B5" s="64"/>
       <c r="C5" s="32" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D5" s="68"/>
       <c r="E5" s="62"/>
       <c r="F5" s="64"/>
       <c r="G5" s="32" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="H5" s="68"/>
       <c r="I5" s="62"/>
@@ -15913,7 +15826,7 @@
     </row>
     <row r="6" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="44" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B6" s="33">
         <v>400</v>
@@ -15947,12 +15860,12 @@
     </row>
     <row r="8" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B9" s="38">
         <v>7861033</v>
@@ -15960,51 +15873,51 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C17" s="42">
         <v>28</v>

--- a/spring_be_realistic.xlsx
+++ b/spring_be_realistic.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="5280" windowHeight="7950"/>
@@ -830,10 +830,6 @@
     <t>820221945187</t>
   </si>
   <si>
-    <t>https://app.applyyourself.com/AYApplicantLogin/fl_ApplicantConnectLogin.asp?id=neu-grad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DONEs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -873,32 +869,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Daniel M German 는 학생을 안 받을거 같다.
-Alex Thomo 는 중국애들 안받을거 같다
-Daniela Damian:X
-Melanie Tory: X
-David Goodenough: X
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Jianping Pan: nwtwork, protocol, IP-TV! 중국인이다. 괜찮은거 같아
-Daniela Damian: SE, requrement engineering
-Nigel Horspool: lang, 하지만 이영감 현재는 아무것도 안하는거 같다.. 너무 늙었나..
-Hausi A. Müller: 연구방향이 뭔지 모르겠다. </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jinzheyu
 Nimama2013!</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -968,24 +938,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apply:https://www.uvic.ca/BAN2P/bzskprog.p_selectprogram
-docs:http://www.uvic.ca/graduatestudies/admissions/admissions/beforeapplying/documents/index.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데드라인 언제??
 절반쯤 신청됐다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://welcome.iit.edu/Prod/Pages/Login.aspx?ReturnUrl=/Prod/Pages/Application.aspx?id=e58506e6-0512-e311-9d08-00505690011b&amp;NeedsLogin=True
-https://my125.iit.edu/gradportal/student/applications.html?ap=1#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지메일
-Nimama2012
-Be sure to check the Applicant Portal to monitor the status of your application!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1001,12 +955,6 @@
   <si>
     <t>jinzheyu
 Nimama2013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://connect2.concordia.ca/concordia/admission/gradapplication.ezc
-https://sims.concordia.ca/waa/uiUserPage.asp
-https://www.myconcordia.ca  에서 상태확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -13506,12 +13454,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>싸다.
-Your netname is J_ZHEYU
-Your password is Xi0Gt1mSETFo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>GT: INSTITUTIONAL CODE 3679, GRE Department Code 0402, and TOEFL Department Code 78.
 GT보냄</t>
@@ -13541,6 +13483,106 @@
   <si>
     <t>Winsdor
 January 1 for May admission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Northeastern University 
+Nov 15
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이학교 집중공략하자..</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4W학비. (30학점 가정)
+Co-op 좋다
+Official transcripts from all colleges/universities attended indicating degree earned can be submitted at the time of admission: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">성적표 아직 안바쳐도 된다. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입학 허가를 받은다음 성적표 보낸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">입학 허가를 받은다음 성적표 보낸다.
+no coop
+https://sims.concordia.ca/waa/uiAppGradReferences1.asp  여기서 얘기하기로, academic </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>assesment form을 추천인들한테서 한벌씩 받아 와야 한다고 하는데… 썅..</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS,CV는 어디서 업데잇?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply:https://www.uvic.ca/BAN2P/bzskprog.p_selectprogram
+docs:http://www.uvic.ca/graduatestudies/admissions/admissions/beforeapplying/documents/index.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://connect2.concordia.ca/concordia/admission/gradapplication.ezc
+https://sims.concordia.ca/waa/uiUserPage.asp
+https://www.myconcordia.ca  에서 상태확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.applyyourself.com/AYApplicantLogin/fl_ApplicantConnectLogin.asp?id=neu-grad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸다.
+Your netname is J_ZHEYU
+Your password is Xi0Gt1mSETFo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -13552,65 +13594,12 @@
   </si>
   <si>
     <r>
-      <t>Northeastern University 
-Nov 15
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이학교 집중공략하자..</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4W학비. (30학점 가정)
-Co-op 좋다
-Official transcripts from all colleges/universities attended indicating degree earned can be submitted at the time of admission: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">성적표 아직 안바쳐도 된다. </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입학 허가를 받은다음 성적표 보낸다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">입학 허가를 받은다음 성적표 보낸다.
-no coop
-https://sims.concordia.ca/waa/uiAppGradReferences1.asp  여기서 얘기하기로, academic </t>
+      <t xml:space="preserve">Daniel M German 는 학생을 안 받을거 같다.
+Alex Thomo 는 중국애들 안받을거 같다
+Daniela Damian:X
+Melanie Tory: X
+David Goodenough: X
+</t>
     </r>
     <r>
       <rPr>
@@ -13621,12 +13610,25 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>assesment form을 추천인들한테서 한벌씩 받아 와야 한다고 하는데… 썅..</t>
+      <t xml:space="preserve">
+Jianping Pan: nwtwork, protocol, IP-TV! 중국인이다. 괜찮은거 같아
+Daniela Damian: SE, requrement engineering
+Nigel Horspool: lang, 하지만 이영감 현재는 아무것도 안하는거 같다.. 너무 늙었나..
+Hausi A. Müller: 연구방향이 뭔지 모르겠다. </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PS,CV는 어디서 업데잇?</t>
+    <t>https://welcome.iit.edu/Prod/Pages/Login.aspx?ReturnUrl=/Prod/Pages/Application.aspx?id=e58506e6-0512-e311-9d08-00505690011b&amp;NeedsLogin=True
+https://my125.iit.edu/gradportal/student/applications.html?ap=1#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지메일
+Nimama2012
+Be sure to check the Applicant Portal to monitor the status of your application!
+A20320504
+04040504</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14348,24 +14350,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14390,10 +14374,28 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -14406,7 +14408,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -14695,8 +14697,8 @@
   <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14740,19 +14742,19 @@
     </row>
     <row r="2" spans="1:8" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -14760,39 +14762,39 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -14814,7 +14816,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B23" s="54"/>
       <c r="C23" s="54"/>
@@ -14825,25 +14827,25 @@
     </row>
     <row r="24" spans="1:8" ht="266.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="51" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
@@ -14860,7 +14862,7 @@
         <v>97</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="7" customFormat="1" ht="312" customHeight="1" x14ac:dyDescent="0.3">
@@ -14868,42 +14870,42 @@
         <v>106</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>98</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="7" customFormat="1" ht="138" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="G27" s="53" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="46" customFormat="1" x14ac:dyDescent="0.3">
@@ -14958,7 +14960,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
@@ -15736,93 +15738,93 @@
       <c r="A2" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="55" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="55" t="s">
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="K2" s="57"/>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="28"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="59"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="29" t="s">
         <v>115</v>
       </c>
       <c r="E3" s="30"/>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="59"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="29" t="s">
         <v>115</v>
       </c>
       <c r="I3" s="30"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="57" t="s">
         <v>116</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="57" t="s">
         <v>116</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="H4" s="67" t="s">
+      <c r="H4" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="I4" s="61" t="s">
+      <c r="I4" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="55" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="66"/>
-      <c r="B5" s="64"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="64"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="56"/>
     </row>
     <row r="6" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="44" t="s">
@@ -15937,6 +15939,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
@@ -15946,12 +15954,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/spring_be_realistic.xlsx
+++ b/spring_be_realistic.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="174">
   <si>
     <t>Univ</t>
   </si>
@@ -13518,26 +13518,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">4W학비. (30학점 가정)
-Co-op 좋다
-Official transcripts from all colleges/universities attended indicating degree earned can be submitted at the time of admission: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">성적표 아직 안바쳐도 된다. </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>입학 허가를 받은다음 성적표 보낸다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13577,12 +13557,6 @@
   </si>
   <si>
     <t>https://app.applyyourself.com/AYApplicantLogin/fl_ApplicantConnectLogin.asp?id=neu-grad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>싸다.
-Your netname is J_ZHEYU
-Your password is Xi0Gt1mSETFo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -13629,6 +13603,43 @@
 Be sure to check the Applicant Portal to monitor the status of your application!
 A20320504
 04040504</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸다.
+Your netname is J_ZHEYU
+Your password is Xi0Gt1mSETFo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4W학비. (30학점 가정)
+Co-op 좋다
+Official transcripts from all colleges/universities attended indicating degree earned can be submitted at the time of admission: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">성적표 아직 안바쳐도 된다. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missing materials:
+Northeaster: 
+GRE: Not Received
+Uvic: done
+USC:
+다 보낸거 같아. 
+IIT:
+  GRE 15일에 Northeastern이랑 같이 보냄. 25일에 도착할 예정.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14350,6 +14361,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14372,24 +14401,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14694,11 +14705,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14740,66 +14751,67 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:8" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+    <row r="12" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B12" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="2" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>164</v>
+      <c r="E12" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+    <row r="13" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B13" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G12" s="52" t="s">
+      <c r="G13" s="52" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
@@ -14807,139 +14819,143 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
     </row>
-    <row r="24" spans="1:8" ht="266.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="51" t="s">
+    <row r="25" spans="1:8" ht="266.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B25" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="7" customFormat="1" ht="312" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>145</v>
+      <c r="G27" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>152</v>
+    <row r="28" spans="1:8" s="7" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="53" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="7" customFormat="1" ht="312" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>170</v>
-      </c>
+    <row r="36" spans="1:4" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="47"/>
+      <c r="B36" s="45"/>
     </row>
-    <row r="27" spans="1:8" s="7" customFormat="1" ht="138" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G27" s="53" t="s">
-        <v>153</v>
-      </c>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
+      <c r="B37" s="13"/>
     </row>
-    <row r="35" spans="1:4" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="47"/>
-      <c r="B35" s="45"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="9"/>
+      <c r="D42" s="6"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="13"/>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="18"/>
+      <c r="B74" s="9"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="9"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="18"/>
-      <c r="B73" s="9"/>
-    </row>
-    <row r="74" spans="1:2" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="18"/>
-      <c r="B74" s="10"/>
+    <row r="75" spans="1:2" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="18"/>
+      <c r="B75" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A24:G24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://welcome.iit.edu/Prod/Pages/Login.aspx?ReturnUrl=/Prod/Pages/Application.aspx?id=e58506e6-0512-e311-9d08-00505690011b&amp;NeedsLogin=True"/>
-    <hyperlink ref="B25" r:id="rId2"/>
-    <hyperlink ref="B24" r:id="rId3"/>
-    <hyperlink ref="B12" r:id="rId4"/>
-    <hyperlink ref="B27" r:id="rId5" display="https://connect2.concordia.ca/concordia/admission/gradapplication.ezc"/>
-    <hyperlink ref="B11" r:id="rId6" display="http://www1.uwindsor.ca/registrar/how-to-apply-0"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://welcome.iit.edu/Prod/Pages/Login.aspx?ReturnUrl=/Prod/Pages/Application.aspx?id=e58506e6-0512-e311-9d08-00505690011b&amp;NeedsLogin=True"/>
+    <hyperlink ref="B26" r:id="rId2"/>
+    <hyperlink ref="B25" r:id="rId3"/>
+    <hyperlink ref="B13" r:id="rId4"/>
+    <hyperlink ref="B28" r:id="rId5" display="https://connect2.concordia.ca/concordia/admission/gradapplication.ezc"/>
+    <hyperlink ref="B12" r:id="rId6" display="http://www1.uwindsor.ca/registrar/how-to-apply-0"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -15738,93 +15754,93 @@
       <c r="A2" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="63" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="63" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="K2" s="65"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="28"/>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="67"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="29" t="s">
         <v>115</v>
       </c>
       <c r="E3" s="30"/>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="67"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="29" t="s">
         <v>115</v>
       </c>
       <c r="I3" s="30"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="68"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="57" t="s">
+      <c r="A4" s="65"/>
+      <c r="B4" s="63" t="s">
         <v>116</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="63" t="s">
         <v>116</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="61" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="60"/>
-      <c r="B5" s="58"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="58"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="56"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="62"/>
     </row>
     <row r="6" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="44" t="s">
@@ -15939,12 +15955,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J3:K3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
@@ -15954,6 +15964,12 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/spring_be_realistic.xlsx
+++ b/spring_be_realistic.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="5280" windowHeight="7950"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="178">
   <si>
     <t>Univ</t>
   </si>
@@ -700,10 +700,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jd.kim@nexstreaming.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+(82)02-2194-5360</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13557,13 +13553,6 @@
   </si>
   <si>
     <t>https://app.applyyourself.com/AYApplicantLogin/fl_ApplicantConnectLogin.asp?id=neu-grad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yizhou Sun: 메일 보냈다.. 다른사람 시도.
-Networks:Christo Wilson
-AI: Vona; David Smith
-Marsette Vona: 관심은 있지만, first choice는 아니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -13640,6 +13629,41 @@
 다 보낸거 같아. 
 IIT:
   GRE 15일에 Northeastern이랑 같이 보냄. 25일에 도착할 예정.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jd.kim@nexstreaming.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jinzheyu
+001816"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얘네는 그룹따라 사람 찾으면 안돼..;교수랑 연락하고나서 submit. Page 7에 누구랑 연락했는지 적어야돼.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보냈어:
+Yizhou Sun: 
+아직:
+Networks:Christo Wilson
+AI: Vona; David Smith
+Marsette Vona: 관심은 있지만, first choice는 아니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">멜 보냈어:
+Sandra Zilles: Machine learning
+아직:
+Yiyu Yao: maybe ask fu rong for introducation?
+Samira Sadaoui :SE
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14405,8 +14429,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -14419,7 +14443,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -14705,11 +14729,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14751,71 +14775,81 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:8" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>173</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>158</v>
+    <row r="3" spans="1:8" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
+        <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+    <row r="4" spans="1:8" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="2" t="s">
-        <v>149</v>
-      </c>
+      <c r="A7" s="15"/>
     </row>
-    <row r="12" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>163</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" s="48" t="s">
+    <row r="13" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G13" s="52" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="9"/>
+      <c r="E14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
@@ -14823,139 +14857,143 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+    </row>
+    <row r="26" spans="1:8" ht="266.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="7" customFormat="1" ht="312" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="7" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
+      <c r="B29" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="53" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="25" spans="1:8" ht="266.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>145</v>
-      </c>
+    <row r="37" spans="1:4" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="47"/>
+      <c r="B37" s="45"/>
     </row>
-    <row r="26" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>152</v>
-      </c>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+      <c r="B38" s="13"/>
     </row>
-    <row r="27" spans="1:8" s="7" customFormat="1" ht="312" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>168</v>
-      </c>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="9"/>
+      <c r="D43" s="6"/>
     </row>
-    <row r="28" spans="1:8" s="7" customFormat="1" ht="138" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G28" s="53" t="s">
-        <v>153</v>
-      </c>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="18"/>
+      <c r="B75" s="9"/>
     </row>
-    <row r="36" spans="1:4" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="47"/>
-      <c r="B36" s="45"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="13"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="9"/>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="18"/>
-      <c r="B74" s="9"/>
-    </row>
-    <row r="75" spans="1:2" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="18"/>
-      <c r="B75" s="10"/>
+    <row r="76" spans="1:2" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="18"/>
+      <c r="B76" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A25:G25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://welcome.iit.edu/Prod/Pages/Login.aspx?ReturnUrl=/Prod/Pages/Application.aspx?id=e58506e6-0512-e311-9d08-00505690011b&amp;NeedsLogin=True"/>
-    <hyperlink ref="B26" r:id="rId2"/>
-    <hyperlink ref="B25" r:id="rId3"/>
-    <hyperlink ref="B13" r:id="rId4"/>
-    <hyperlink ref="B28" r:id="rId5" display="https://connect2.concordia.ca/concordia/admission/gradapplication.ezc"/>
-    <hyperlink ref="B12" r:id="rId6" display="http://www1.uwindsor.ca/registrar/how-to-apply-0"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://welcome.iit.edu/Prod/Pages/Login.aspx?ReturnUrl=/Prod/Pages/Application.aspx?id=e58506e6-0512-e311-9d08-00505690011b&amp;NeedsLogin=True"/>
+    <hyperlink ref="B27" r:id="rId2"/>
+    <hyperlink ref="B26" r:id="rId3"/>
+    <hyperlink ref="B14" r:id="rId4"/>
+    <hyperlink ref="B29" r:id="rId5" display="https://connect2.concordia.ca/concordia/admission/gradapplication.ezc"/>
+    <hyperlink ref="B13" r:id="rId6" display="http://www1.uwindsor.ca/registrar/how-to-apply-0"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -14976,7 +15014,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
@@ -15360,7 +15398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -15398,7 +15436,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>72</v>
@@ -15409,7 +15447,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>71</v>
@@ -15436,15 +15474,15 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D9" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -15465,7 +15503,7 @@
     <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -15483,7 +15521,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>92</v>
@@ -15522,12 +15560,12 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="20" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>61</v>
@@ -15639,7 +15677,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15747,46 +15785,46 @@
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="55" t="s">
         <v>110</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>111</v>
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
       <c r="E2" s="57"/>
       <c r="F2" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G2" s="56"/>
       <c r="H2" s="56"/>
       <c r="I2" s="57"/>
       <c r="J2" s="55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="28"/>
       <c r="B3" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="59"/>
       <c r="D3" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G3" s="59"/>
       <c r="H3" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I3" s="30"/>
       <c r="J3" s="58"/>
@@ -15795,47 +15833,47 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
       <c r="B4" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>117</v>
-      </c>
       <c r="D4" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="H4" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="J4" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="H4" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="I4" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="J4" s="63" t="s">
-        <v>120</v>
-      </c>
       <c r="K4" s="61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="66"/>
       <c r="B5" s="64"/>
       <c r="C5" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="68"/>
       <c r="E5" s="62"/>
       <c r="F5" s="64"/>
       <c r="G5" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H5" s="68"/>
       <c r="I5" s="62"/>
@@ -15844,7 +15882,7 @@
     </row>
     <row r="6" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="33">
         <v>400</v>
@@ -15878,12 +15916,12 @@
     </row>
     <row r="8" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="38">
         <v>7861033</v>
@@ -15891,51 +15929,51 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="B16" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="41" t="s">
+      <c r="D16" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="E16" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="F16" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="G16" s="41" t="s">
         <v>129</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="43" t="s">
         <v>131</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>132</v>
       </c>
       <c r="C17" s="42">
         <v>28</v>

--- a/spring_be_realistic.xlsx
+++ b/spring_be_realistic.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="179">
   <si>
     <t>Univ</t>
   </si>
@@ -949,11 +949,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jinzheyu
-Nimama2013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">co-op </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13518,25 +13513,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">입학 허가를 받은다음 성적표 보낸다.
-no coop
-https://sims.concordia.ca/waa/uiAppGradReferences1.asp  여기서 얘기하기로, academic </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>assesment form을 추천인들한테서 한벌씩 받아 와야 한다고 하는데… 썅..</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PS,CV는 어디서 업데잇?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13553,32 +13529,6 @@
   </si>
   <si>
     <t>https://app.applyyourself.com/AYApplicantLogin/fl_ApplicantConnectLogin.asp?id=neu-grad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Daniel M German 는 학생을 안 받을거 같다.
-Alex Thomo 는 중국애들 안받을거 같다
-Daniela Damian:X
-Melanie Tory: X
-David Goodenough: X
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Jianping Pan: nwtwork, protocol, IP-TV! 중국인이다. 괜찮은거 같아
-Daniela Damian: SE, requrement engineering
-Nigel Horspool: lang, 하지만 이영감 현재는 아무것도 안하는거 같다.. 너무 늙었나..
-Hausi A. Müller: 연구방향이 뭔지 모르겠다. </t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -13592,12 +13542,6 @@
 Be sure to check the Applicant Portal to monitor the status of your application!
 A20320504
 04040504</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>싸다.
-Your netname is J_ZHEYU
-Your password is Xi0Gt1mSETFo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -13664,6 +13608,68 @@
 Yiyu Yao: maybe ask fu rong for introducation?
 Samira Sadaoui :SE
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수리스트?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">입학 허가를 받은다음 성적표 보낸다.
+no coop
+https://sims.concordia.ca/waa/uiAppGradReferences1.asp  여기서 얘기하기로, academic </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>assesment form을 추천인들한테서 한벌씩 받아 와야 한다고 하는데… 썅..</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jinzheyu
+Nimama2013
+Your netname is J_ZHEYU
+Your password is Xi0Gt1mSETFo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Daniel M German 는 학생을 안 받을거 같다.
+Alex Thomo 는 중국애들 안받을거 같다
+Daniela Damian:X
+Melanie Tory: X
+David Goodenough: X
+보냈음:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Jianping Pan: nwtwork, protocol, IP-TV! 중국인이다. 괜찮은거 같아
+안보냈음:
+Daniela Damian: SE, requrement engineering
+Nigel Horspool: lang, 하지만 이영감 현재는 아무것도 안하는거 같다.. 너무 늙었나..
+Hausi A. Müller: 연구방향이 뭔지 모르겠다. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멜 보냄:
+Todd Eavis,:DB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14732,8 +14738,8 @@
   <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14777,21 +14783,21 @@
     </row>
     <row r="2" spans="1:8" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14799,16 +14805,19 @@
         <v>149</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>141</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -14821,17 +14830,17 @@
     </row>
     <row r="13" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>140</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
@@ -14845,7 +14854,7 @@
         <v>146</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G14" s="52" t="s">
         <v>150</v>
@@ -14881,22 +14890,22 @@
     </row>
     <row r="26" spans="1:8" ht="266.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H26" s="23" t="s">
         <v>144</v>
@@ -14924,7 +14933,7 @@
         <v>105</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>98</v>
@@ -14933,30 +14942,30 @@
         <v>142</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>151</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="7" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="7" customFormat="1" ht="189" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>139</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="G29" s="53" t="s">
         <v>152</v>
@@ -15014,7 +15023,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
@@ -15560,7 +15569,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">

--- a/spring_be_realistic.xlsx
+++ b/spring_be_realistic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="5280" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="5280" windowHeight="7950" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="address" sheetId="4" r:id="rId4"/>
     <sheet name="reuse-materials" sheetId="5" r:id="rId5"/>
     <sheet name="GRE TEOFL" sheetId="6" r:id="rId6"/>
+    <sheet name="visa" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="183">
   <si>
     <t>Univ</t>
   </si>
@@ -13670,6 +13671,21 @@
   <si>
     <t>멜 보냄:
 Todd Eavis,:DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>study playn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://wenku.baidu.com/view/1537086327d3240c8447ef4c.html</t>
+  </si>
+  <si>
+    <t>Your SEVIS ID# is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N0010837192</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14391,24 +14407,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14431,6 +14429,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14737,7 +14753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
@@ -15408,7 +15424,7 @@
   <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView topLeftCell="B12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15801,93 +15817,93 @@
       <c r="A2" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="55" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="55" t="s">
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="57"/>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="28"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="59"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="29" t="s">
         <v>114</v>
       </c>
       <c r="E3" s="30"/>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="59"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="29" t="s">
         <v>114</v>
       </c>
       <c r="I3" s="30"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="57" t="s">
         <v>115</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="57" t="s">
         <v>115</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="67" t="s">
+      <c r="H4" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="I4" s="61" t="s">
+      <c r="I4" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="55" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="66"/>
-      <c r="B5" s="64"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="64"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="56"/>
     </row>
     <row r="6" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="44" t="s">
@@ -16002,6 +16018,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
@@ -16011,12 +16033,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -16024,4 +16040,44 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId2"/>
+</worksheet>
 </file>